--- a/Code/Results/Cases/Case_4_121/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_121/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.020450285157071</v>
+        <v>1.04771439876932</v>
       </c>
       <c r="D2">
-        <v>1.034436211846236</v>
+        <v>1.049524829611311</v>
       </c>
       <c r="E2">
-        <v>1.037330731701582</v>
+        <v>1.061309456830279</v>
       </c>
       <c r="F2">
-        <v>1.042539798249593</v>
+        <v>1.068673395832178</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.051435067919363</v>
+        <v>1.044722035198725</v>
       </c>
       <c r="J2">
-        <v>1.042036074540926</v>
+        <v>1.052761996675746</v>
       </c>
       <c r="K2">
-        <v>1.045435769451041</v>
+        <v>1.052281646575665</v>
       </c>
       <c r="L2">
-        <v>1.048293380463272</v>
+        <v>1.064033867021544</v>
       </c>
       <c r="M2">
-        <v>1.053436668644516</v>
+        <v>1.071377948351662</v>
       </c>
       <c r="N2">
-        <v>1.043515885290013</v>
+        <v>1.054257039464515</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.024970097392069</v>
+        <v>1.048671758759837</v>
       </c>
       <c r="D3">
-        <v>1.037810059655562</v>
+        <v>1.050257835506819</v>
       </c>
       <c r="E3">
-        <v>1.041538357084178</v>
+        <v>1.06225734506084</v>
       </c>
       <c r="F3">
-        <v>1.047065979877602</v>
+        <v>1.069700470109035</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.052871764693134</v>
+        <v>1.044977003681923</v>
       </c>
       <c r="J3">
-        <v>1.044802448111952</v>
+        <v>1.053367902734957</v>
       </c>
       <c r="K3">
-        <v>1.047980973365679</v>
+        <v>1.052827120638053</v>
       </c>
       <c r="L3">
-        <v>1.051665964045144</v>
+        <v>1.064796015085454</v>
       </c>
       <c r="M3">
-        <v>1.05713008006273</v>
+        <v>1.072220521714395</v>
       </c>
       <c r="N3">
-        <v>1.046286187428787</v>
+        <v>1.054863805979828</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.027836376161565</v>
+        <v>1.049291704404007</v>
       </c>
       <c r="D4">
-        <v>1.039952201747797</v>
+        <v>1.050732484695203</v>
       </c>
       <c r="E4">
-        <v>1.044211868351492</v>
+        <v>1.062871530110706</v>
       </c>
       <c r="F4">
-        <v>1.049942210807436</v>
+        <v>1.07036604001261</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053774529404192</v>
+        <v>1.045141054786249</v>
       </c>
       <c r="J4">
-        <v>1.046553866992306</v>
+        <v>1.053759799607003</v>
       </c>
       <c r="K4">
-        <v>1.049591213940976</v>
+        <v>1.053179754618427</v>
       </c>
       <c r="L4">
-        <v>1.053804444246215</v>
+        <v>1.065289386379099</v>
       </c>
       <c r="M4">
-        <v>1.059473046198413</v>
+        <v>1.072766094227285</v>
       </c>
       <c r="N4">
-        <v>1.048040093524841</v>
+        <v>1.055256259390383</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.029027885265332</v>
+        <v>1.049552441153311</v>
       </c>
       <c r="D5">
-        <v>1.040843261439668</v>
+        <v>1.050932108670547</v>
       </c>
       <c r="E5">
-        <v>1.045324464599397</v>
+        <v>1.063129932972769</v>
       </c>
       <c r="F5">
-        <v>1.051139251960895</v>
+        <v>1.070646080094037</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.054147776945612</v>
+        <v>1.045209798613667</v>
       </c>
       <c r="J5">
-        <v>1.047281203750017</v>
+        <v>1.053924512753279</v>
       </c>
       <c r="K5">
-        <v>1.050259635624632</v>
+        <v>1.053327923468238</v>
       </c>
       <c r="L5">
-        <v>1.054693311996378</v>
+        <v>1.065496849107424</v>
       </c>
       <c r="M5">
-        <v>1.060447166635192</v>
+        <v>1.0729955407772</v>
       </c>
       <c r="N5">
-        <v>1.048768463184175</v>
+        <v>1.05542120644822</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.029227168613313</v>
+        <v>1.049596226520543</v>
       </c>
       <c r="D6">
-        <v>1.040992326119638</v>
+        <v>1.050965631155504</v>
       </c>
       <c r="E6">
-        <v>1.045510620452968</v>
+        <v>1.063173331613907</v>
       </c>
       <c r="F6">
-        <v>1.051339541889297</v>
+        <v>1.070693113774386</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.054210083373388</v>
+        <v>1.045221327898979</v>
       </c>
       <c r="J6">
-        <v>1.047402809377238</v>
+        <v>1.053952166428106</v>
       </c>
       <c r="K6">
-        <v>1.050371373988413</v>
+        <v>1.053352797043345</v>
       </c>
       <c r="L6">
-        <v>1.054841971171671</v>
+        <v>1.06553168588337</v>
       </c>
       <c r="M6">
-        <v>1.060610099181216</v>
+        <v>1.073034070985975</v>
       </c>
       <c r="N6">
-        <v>1.048890241505335</v>
+        <v>1.055448899394437</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.027852349474865</v>
+        <v>1.049295187943749</v>
       </c>
       <c r="D7">
-        <v>1.039964145046884</v>
+        <v>1.050735151761995</v>
       </c>
       <c r="E7">
-        <v>1.04422677898022</v>
+        <v>1.062874982120057</v>
       </c>
       <c r="F7">
-        <v>1.049958252803785</v>
+        <v>1.070369781001874</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053779541206245</v>
+        <v>1.045141974222476</v>
       </c>
       <c r="J7">
-        <v>1.046563620541364</v>
+        <v>1.053762000671506</v>
       </c>
       <c r="K7">
-        <v>1.049600178583766</v>
+        <v>1.053181734767276</v>
       </c>
       <c r="L7">
-        <v>1.053816360784042</v>
+        <v>1.06529215831318</v>
       </c>
       <c r="M7">
-        <v>1.059486104648404</v>
+        <v>1.072769159759311</v>
       </c>
       <c r="N7">
-        <v>1.048049860925057</v>
+        <v>1.05525846358065</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.021990161423408</v>
+        <v>1.048037845290714</v>
       </c>
       <c r="D8">
-        <v>1.035585092431454</v>
+        <v>1.049772480141166</v>
       </c>
       <c r="E8">
-        <v>1.038763137344811</v>
+        <v>1.061629625895582</v>
       </c>
       <c r="F8">
-        <v>1.04408059008098</v>
+        <v>1.069020295941049</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.051926269057058</v>
+        <v>1.044808395379069</v>
       </c>
       <c r="J8">
-        <v>1.042979153012704</v>
+        <v>1.052966799101831</v>
       </c>
       <c r="K8">
-        <v>1.046303685905114</v>
+        <v>1.052466058702769</v>
       </c>
       <c r="L8">
-        <v>1.049442440223407</v>
+        <v>1.06429139435454</v>
       </c>
       <c r="M8">
-        <v>1.054694817360124</v>
+        <v>1.071662622500444</v>
       </c>
       <c r="N8">
-        <v>1.044460303041363</v>
+        <v>1.054462132733535</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.011189982956631</v>
+        <v>1.045825881879337</v>
       </c>
       <c r="D9">
-        <v>1.02754022206531</v>
+        <v>1.048078828779543</v>
       </c>
       <c r="E9">
-        <v>1.028740086319027</v>
+        <v>1.059441617726245</v>
       </c>
       <c r="F9">
-        <v>1.033300109491313</v>
+        <v>1.066649917788897</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.048447182495575</v>
+        <v>1.044213481169763</v>
       </c>
       <c r="J9">
-        <v>1.036353689274875</v>
+        <v>1.051564326324872</v>
       </c>
       <c r="K9">
-        <v>1.040201739712337</v>
+        <v>1.051202500860411</v>
       </c>
       <c r="L9">
-        <v>1.041383470988467</v>
+        <v>1.062529575473211</v>
       </c>
       <c r="M9">
-        <v>1.045875069326953</v>
+        <v>1.069715649734291</v>
       </c>
       <c r="N9">
-        <v>1.037825430385076</v>
+        <v>1.053057668284367</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.003638836655381</v>
+        <v>1.044353732791398</v>
       </c>
       <c r="D10">
-        <v>1.021934365952364</v>
+        <v>1.04695161466408</v>
       </c>
       <c r="E10">
-        <v>1.02176348569054</v>
+        <v>1.057987362029752</v>
       </c>
       <c r="F10">
-        <v>1.02579717764548</v>
+        <v>1.06507483213383</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045973076403665</v>
+        <v>1.043812122498263</v>
       </c>
       <c r="J10">
-        <v>1.031708821954906</v>
+        <v>1.05062856878461</v>
       </c>
       <c r="K10">
-        <v>1.035918568913328</v>
+        <v>1.050358535387697</v>
       </c>
       <c r="L10">
-        <v>1.035750605866076</v>
+        <v>1.061356198895696</v>
       </c>
       <c r="M10">
-        <v>1.039715770474391</v>
+        <v>1.068419667776962</v>
       </c>
       <c r="N10">
-        <v>1.033173966820738</v>
+        <v>1.052120581861065</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.00027740707053</v>
+        <v>1.043716877251573</v>
       </c>
       <c r="D11">
-        <v>1.01944416759079</v>
+        <v>1.046463981018691</v>
       </c>
       <c r="E11">
-        <v>1.018665742570855</v>
+        <v>1.057358714624933</v>
       </c>
       <c r="F11">
-        <v>1.022465817509168</v>
+        <v>1.064394041478182</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044862343283295</v>
+        <v>1.043637209120667</v>
       </c>
       <c r="J11">
-        <v>1.029638650136183</v>
+        <v>1.050223201437517</v>
       </c>
       <c r="K11">
-        <v>1.034008480735472</v>
+        <v>1.049992721446314</v>
       </c>
       <c r="L11">
-        <v>1.033244031093764</v>
+        <v>1.060848402853544</v>
       </c>
       <c r="M11">
-        <v>1.036976143445139</v>
+        <v>1.067858979656426</v>
       </c>
       <c r="N11">
-        <v>1.031100855120581</v>
+        <v>1.051714638845843</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9990142634110007</v>
+        <v>1.043480410839417</v>
       </c>
       <c r="D12">
-        <v>1.018509275814659</v>
+        <v>1.046282922087442</v>
       </c>
       <c r="E12">
-        <v>1.01750292371874</v>
+        <v>1.057125366554235</v>
       </c>
       <c r="F12">
-        <v>1.021215305853254</v>
+        <v>1.064141351621544</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044443593422359</v>
+        <v>1.043572070307992</v>
       </c>
       <c r="J12">
-        <v>1.028860400048377</v>
+        <v>1.05007260395496</v>
       </c>
       <c r="K12">
-        <v>1.033290255748238</v>
+        <v>1.04985678687607</v>
       </c>
       <c r="L12">
-        <v>1.032302306050648</v>
+        <v>1.060659828320535</v>
       </c>
       <c r="M12">
-        <v>1.035947036648153</v>
+        <v>1.067650788256788</v>
       </c>
       <c r="N12">
-        <v>1.030321499828383</v>
+        <v>1.051563827497587</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.999285883924773</v>
+        <v>1.043531129598765</v>
       </c>
       <c r="D13">
-        <v>1.018710270335426</v>
+        <v>1.046321756659967</v>
       </c>
       <c r="E13">
-        <v>1.017752914140482</v>
+        <v>1.05717541326948</v>
       </c>
       <c r="F13">
-        <v>1.021484149168613</v>
+        <v>1.064195546015226</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044533700292194</v>
+        <v>1.043586050408642</v>
       </c>
       <c r="J13">
-        <v>1.029027765486343</v>
+        <v>1.050104908790461</v>
       </c>
       <c r="K13">
-        <v>1.033444719416116</v>
+        <v>1.049885947778087</v>
       </c>
       <c r="L13">
-        <v>1.032504801081967</v>
+        <v>1.060700276213917</v>
       </c>
       <c r="M13">
-        <v>1.036168313102874</v>
+        <v>1.067695442694412</v>
       </c>
       <c r="N13">
-        <v>1.030489102944468</v>
+        <v>1.05159617820966</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.000173296909572</v>
+        <v>1.043697329022039</v>
       </c>
       <c r="D14">
-        <v>1.019367094439329</v>
+        <v>1.04644901319784</v>
       </c>
       <c r="E14">
-        <v>1.018569875886375</v>
+        <v>1.05733942273927</v>
       </c>
       <c r="F14">
-        <v>1.02236272117278</v>
+        <v>1.064373150253303</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044827856748334</v>
+        <v>1.043631828154714</v>
       </c>
       <c r="J14">
-        <v>1.029574512060552</v>
+        <v>1.050210753528603</v>
       </c>
       <c r="K14">
-        <v>1.03394929261603</v>
+        <v>1.049981486169351</v>
       </c>
       <c r="L14">
-        <v>1.033166408694511</v>
+        <v>1.060832814330698</v>
       </c>
       <c r="M14">
-        <v>1.036891314980043</v>
+        <v>1.067841768993128</v>
       </c>
       <c r="N14">
-        <v>1.031036625961524</v>
+        <v>1.05170217325947</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.00071810795115</v>
+        <v>1.043799741932209</v>
       </c>
       <c r="D15">
-        <v>1.01977045581069</v>
+        <v>1.046527429450794</v>
       </c>
       <c r="E15">
-        <v>1.019071599356819</v>
+        <v>1.057440495562949</v>
       </c>
       <c r="F15">
-        <v>1.022902281408198</v>
+        <v>1.064482602777891</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045008270336914</v>
+        <v>1.04366001106037</v>
       </c>
       <c r="J15">
-        <v>1.029910135017274</v>
+        <v>1.050275964542663</v>
       </c>
       <c r="K15">
-        <v>1.034259007066296</v>
+        <v>1.050040343263431</v>
       </c>
       <c r="L15">
-        <v>1.033572616444901</v>
+        <v>1.060914481233299</v>
       </c>
       <c r="M15">
-        <v>1.037335240140679</v>
+        <v>1.067931935173726</v>
       </c>
       <c r="N15">
-        <v>1.031372725541342</v>
+        <v>1.051767476880651</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.003859925849854</v>
+        <v>1.044396011389436</v>
       </c>
       <c r="D16">
-        <v>1.022098268109744</v>
+        <v>1.046983987043093</v>
       </c>
       <c r="E16">
-        <v>1.021967400655214</v>
+        <v>1.05802910560525</v>
       </c>
       <c r="F16">
-        <v>1.02601647172469</v>
+        <v>1.065120040009108</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.046045940399077</v>
+        <v>1.043823707311972</v>
       </c>
       <c r="J16">
-        <v>1.031844933906642</v>
+        <v>1.050655467992079</v>
       </c>
       <c r="K16">
-        <v>1.036044133202706</v>
+        <v>1.050382805499316</v>
       </c>
       <c r="L16">
-        <v>1.035915492314171</v>
+        <v>1.061389905701429</v>
       </c>
       <c r="M16">
-        <v>1.039896012203127</v>
+        <v>1.068456889005929</v>
       </c>
       <c r="N16">
-        <v>1.033310272067058</v>
+        <v>1.052147519268495</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.005805613827341</v>
+        <v>1.044770195213323</v>
       </c>
       <c r="D17">
-        <v>1.023541292525292</v>
+        <v>1.047270496879738</v>
       </c>
       <c r="E17">
-        <v>1.023762855086368</v>
+        <v>1.058398608322805</v>
       </c>
       <c r="F17">
-        <v>1.027947346258318</v>
+        <v>1.065520218069164</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046686115748712</v>
+        <v>1.043926089447364</v>
       </c>
       <c r="J17">
-        <v>1.033042504593223</v>
+        <v>1.0508934733212</v>
       </c>
       <c r="K17">
-        <v>1.037148775016115</v>
+        <v>1.05059752416442</v>
       </c>
       <c r="L17">
-        <v>1.037366680365557</v>
+        <v>1.061688203510962</v>
       </c>
       <c r="M17">
-        <v>1.041482480929392</v>
+        <v>1.068786308003226</v>
       </c>
       <c r="N17">
-        <v>1.034509543441377</v>
+        <v>1.052385862592482</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.006931705056983</v>
+        <v>1.044988507639993</v>
       </c>
       <c r="D18">
-        <v>1.024376956732014</v>
+        <v>1.047437657283436</v>
       </c>
       <c r="E18">
-        <v>1.024802745604243</v>
+        <v>1.058614234717367</v>
       </c>
       <c r="F18">
-        <v>1.029065678083318</v>
+        <v>1.065753753944782</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04705573268417</v>
+        <v>1.043985698887746</v>
       </c>
       <c r="J18">
-        <v>1.0337353746319</v>
+        <v>1.0510322805619</v>
       </c>
       <c r="K18">
-        <v>1.037787772699316</v>
+        <v>1.050722730047866</v>
       </c>
       <c r="L18">
-        <v>1.038206657974343</v>
+        <v>1.061862222894889</v>
       </c>
       <c r="M18">
-        <v>1.042400876590566</v>
+        <v>1.068978498841528</v>
       </c>
       <c r="N18">
-        <v>1.035203397434982</v>
+        <v>1.052524866955385</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.007314203885606</v>
+        <v>1.045062956238017</v>
       </c>
       <c r="D19">
-        <v>1.024660888381862</v>
+        <v>1.047494662099252</v>
       </c>
       <c r="E19">
-        <v>1.025156090336848</v>
+        <v>1.058687774964814</v>
       </c>
       <c r="F19">
-        <v>1.029445678222501</v>
+        <v>1.065833403759545</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047181127573055</v>
+        <v>1.044006005779128</v>
       </c>
       <c r="J19">
-        <v>1.033970679634169</v>
+        <v>1.051079607296259</v>
       </c>
       <c r="K19">
-        <v>1.038004763617336</v>
+        <v>1.050765415908065</v>
       </c>
       <c r="L19">
-        <v>1.038491985708343</v>
+        <v>1.061921563614242</v>
       </c>
       <c r="M19">
-        <v>1.042712861369305</v>
+        <v>1.069044038777705</v>
       </c>
       <c r="N19">
-        <v>1.035439036597344</v>
+        <v>1.052572260899136</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.005597775139294</v>
+        <v>1.044730042894665</v>
       </c>
       <c r="D20">
-        <v>1.023387096500394</v>
+        <v>1.047239752519536</v>
       </c>
       <c r="E20">
-        <v>1.023570986353216</v>
+        <v>1.058358953649898</v>
       </c>
       <c r="F20">
-        <v>1.027741005215187</v>
+        <v>1.065477270456691</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046617824404335</v>
+        <v>1.043915116014789</v>
       </c>
       <c r="J20">
-        <v>1.032914604394591</v>
+        <v>1.050867939379616</v>
       </c>
       <c r="K20">
-        <v>1.037030810624743</v>
+        <v>1.050574490589273</v>
       </c>
       <c r="L20">
-        <v>1.037211655158093</v>
+        <v>1.061656196146895</v>
       </c>
       <c r="M20">
-        <v>1.041312992296899</v>
+        <v>1.068750959665579</v>
       </c>
       <c r="N20">
-        <v>1.034381461609793</v>
+        <v>1.052360292389773</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9999123843222802</v>
+        <v>1.043648384941364</v>
       </c>
       <c r="D21">
-        <v>1.019173954024119</v>
+        <v>1.046411537379692</v>
       </c>
       <c r="E21">
-        <v>1.018329642548582</v>
+        <v>1.05729112162477</v>
       </c>
       <c r="F21">
-        <v>1.022104370958244</v>
+        <v>1.064320845086097</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044741407537623</v>
+        <v>1.043618352389004</v>
       </c>
       <c r="J21">
-        <v>1.029413769168178</v>
+        <v>1.050179585602923</v>
       </c>
       <c r="K21">
-        <v>1.033800952838821</v>
+        <v>1.049953354005743</v>
       </c>
       <c r="L21">
-        <v>1.032971880765182</v>
+        <v>1.060793783949977</v>
       </c>
       <c r="M21">
-        <v>1.036678730900395</v>
+        <v>1.067798677518963</v>
       </c>
       <c r="N21">
-        <v>1.030875654795806</v>
+        <v>1.051670961071761</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9962530934958926</v>
+        <v>1.042968825266626</v>
       </c>
       <c r="D22">
-        <v>1.016467319818117</v>
+        <v>1.045891210750366</v>
       </c>
       <c r="E22">
-        <v>1.014963389341961</v>
+        <v>1.056620656984071</v>
       </c>
       <c r="F22">
-        <v>1.018484244942993</v>
+        <v>1.063594831820454</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043525771323989</v>
+        <v>1.043430792405216</v>
       </c>
       <c r="J22">
-        <v>1.027158627460443</v>
+        <v>1.049746640210758</v>
       </c>
       <c r="K22">
-        <v>1.031719465348943</v>
+        <v>1.049562503058102</v>
       </c>
       <c r="L22">
-        <v>1.030244134628226</v>
+        <v>1.060251803450188</v>
       </c>
       <c r="M22">
-        <v>1.033698208529937</v>
+        <v>1.067200363523307</v>
       </c>
       <c r="N22">
-        <v>1.028617310528178</v>
+        <v>1.05123740084748</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9982012517153264</v>
+        <v>1.043329023016522</v>
       </c>
       <c r="D23">
-        <v>1.017907793472576</v>
+        <v>1.046167006947909</v>
       </c>
       <c r="E23">
-        <v>1.016754840158978</v>
+        <v>1.05697599505544</v>
       </c>
       <c r="F23">
-        <v>1.020410805296835</v>
+        <v>1.063979602729641</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044173690256498</v>
+        <v>1.043530313576204</v>
       </c>
       <c r="J23">
-        <v>1.028359398721283</v>
+        <v>1.049976166721682</v>
       </c>
       <c r="K23">
-        <v>1.032827853452828</v>
+        <v>1.049769730388688</v>
       </c>
       <c r="L23">
-        <v>1.031696230820953</v>
+        <v>1.060539093354985</v>
       </c>
       <c r="M23">
-        <v>1.035284773395929</v>
+        <v>1.067517500631775</v>
       </c>
       <c r="N23">
-        <v>1.029819787021939</v>
+        <v>1.051467253312376</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.005691715620613</v>
+        <v>1.044748185822005</v>
       </c>
       <c r="D24">
-        <v>1.023456789638721</v>
+        <v>1.047253644436503</v>
       </c>
       <c r="E24">
-        <v>1.023657706297002</v>
+        <v>1.058376871575484</v>
       </c>
       <c r="F24">
-        <v>1.027834266258823</v>
+        <v>1.065496676267159</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.046648694006486</v>
+        <v>1.043920074771366</v>
       </c>
       <c r="J24">
-        <v>1.032972414425069</v>
+        <v>1.050879477122047</v>
       </c>
       <c r="K24">
-        <v>1.037084130070301</v>
+        <v>1.050584898581344</v>
       </c>
       <c r="L24">
-        <v>1.037281724350156</v>
+        <v>1.06167065881263</v>
       </c>
       <c r="M24">
-        <v>1.041389598395373</v>
+        <v>1.06876693191478</v>
       </c>
       <c r="N24">
-        <v>1.034439353737145</v>
+        <v>1.052371846517121</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.014041265618823</v>
+        <v>1.04639729162483</v>
       </c>
       <c r="D25">
-        <v>1.029661094587361</v>
+        <v>1.048516350974731</v>
       </c>
       <c r="E25">
-        <v>1.03138098968385</v>
+        <v>1.060006496798485</v>
       </c>
       <c r="F25">
-        <v>1.036140390669279</v>
+        <v>1.067261811542108</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049373010631879</v>
+        <v>1.044368119910328</v>
       </c>
       <c r="J25">
-        <v>1.038105152214409</v>
+        <v>1.051927039443792</v>
       </c>
       <c r="K25">
-        <v>1.041815770524341</v>
+        <v>1.051529445428036</v>
       </c>
       <c r="L25">
-        <v>1.043510932518693</v>
+        <v>1.062984845932385</v>
       </c>
       <c r="M25">
-        <v>1.048202431787401</v>
+        <v>1.070218640677447</v>
       </c>
       <c r="N25">
-        <v>1.039579380602879</v>
+        <v>1.05342089649752</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_121/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_121/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.04771439876932</v>
+        <v>1.02045028515707</v>
       </c>
       <c r="D2">
-        <v>1.049524829611311</v>
+        <v>1.034436211846236</v>
       </c>
       <c r="E2">
-        <v>1.061309456830279</v>
+        <v>1.037330731701582</v>
       </c>
       <c r="F2">
-        <v>1.068673395832178</v>
+        <v>1.042539798249593</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044722035198725</v>
+        <v>1.051435067919363</v>
       </c>
       <c r="J2">
-        <v>1.052761996675746</v>
+        <v>1.042036074540926</v>
       </c>
       <c r="K2">
-        <v>1.052281646575665</v>
+        <v>1.045435769451042</v>
       </c>
       <c r="L2">
-        <v>1.064033867021544</v>
+        <v>1.048293380463272</v>
       </c>
       <c r="M2">
-        <v>1.071377948351662</v>
+        <v>1.053436668644516</v>
       </c>
       <c r="N2">
-        <v>1.054257039464515</v>
+        <v>1.043515885290012</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.048671758759837</v>
+        <v>1.024970097392069</v>
       </c>
       <c r="D3">
-        <v>1.050257835506819</v>
+        <v>1.037810059655562</v>
       </c>
       <c r="E3">
-        <v>1.06225734506084</v>
+        <v>1.041538357084179</v>
       </c>
       <c r="F3">
-        <v>1.069700470109035</v>
+        <v>1.047065979877603</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044977003681923</v>
+        <v>1.052871764693135</v>
       </c>
       <c r="J3">
-        <v>1.053367902734957</v>
+        <v>1.044802448111952</v>
       </c>
       <c r="K3">
-        <v>1.052827120638053</v>
+        <v>1.047980973365679</v>
       </c>
       <c r="L3">
-        <v>1.064796015085454</v>
+        <v>1.051665964045145</v>
       </c>
       <c r="M3">
-        <v>1.072220521714395</v>
+        <v>1.05713008006273</v>
       </c>
       <c r="N3">
-        <v>1.054863805979828</v>
+        <v>1.046286187428787</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.049291704404007</v>
+        <v>1.027836376161563</v>
       </c>
       <c r="D4">
-        <v>1.050732484695203</v>
+        <v>1.039952201747796</v>
       </c>
       <c r="E4">
-        <v>1.062871530110706</v>
+        <v>1.04421186835149</v>
       </c>
       <c r="F4">
-        <v>1.07036604001261</v>
+        <v>1.049942210807434</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045141054786249</v>
+        <v>1.053774529404191</v>
       </c>
       <c r="J4">
-        <v>1.053759799607003</v>
+        <v>1.046553866992304</v>
       </c>
       <c r="K4">
-        <v>1.053179754618427</v>
+        <v>1.049591213940975</v>
       </c>
       <c r="L4">
-        <v>1.065289386379099</v>
+        <v>1.053804444246214</v>
       </c>
       <c r="M4">
-        <v>1.072766094227285</v>
+        <v>1.059473046198411</v>
       </c>
       <c r="N4">
-        <v>1.055256259390383</v>
+        <v>1.04804009352484</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.049552441153311</v>
+        <v>1.029027885265334</v>
       </c>
       <c r="D5">
-        <v>1.050932108670547</v>
+        <v>1.040843261439669</v>
       </c>
       <c r="E5">
-        <v>1.063129932972769</v>
+        <v>1.045324464599399</v>
       </c>
       <c r="F5">
-        <v>1.070646080094037</v>
+        <v>1.051139251960897</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045209798613667</v>
+        <v>1.054147776945613</v>
       </c>
       <c r="J5">
-        <v>1.053924512753279</v>
+        <v>1.047281203750019</v>
       </c>
       <c r="K5">
-        <v>1.053327923468238</v>
+        <v>1.050259635624633</v>
       </c>
       <c r="L5">
-        <v>1.065496849107424</v>
+        <v>1.054693311996379</v>
       </c>
       <c r="M5">
-        <v>1.0729955407772</v>
+        <v>1.060447166635193</v>
       </c>
       <c r="N5">
-        <v>1.05542120644822</v>
+        <v>1.048768463184177</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.049596226520543</v>
+        <v>1.029227168613314</v>
       </c>
       <c r="D6">
-        <v>1.050965631155504</v>
+        <v>1.040992326119639</v>
       </c>
       <c r="E6">
-        <v>1.063173331613907</v>
+        <v>1.045510620452969</v>
       </c>
       <c r="F6">
-        <v>1.070693113774386</v>
+        <v>1.051339541889297</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045221327898979</v>
+        <v>1.054210083373388</v>
       </c>
       <c r="J6">
-        <v>1.053952166428106</v>
+        <v>1.047402809377239</v>
       </c>
       <c r="K6">
-        <v>1.053352797043345</v>
+        <v>1.050371373988413</v>
       </c>
       <c r="L6">
-        <v>1.06553168588337</v>
+        <v>1.054841971171672</v>
       </c>
       <c r="M6">
-        <v>1.073034070985975</v>
+        <v>1.060610099181217</v>
       </c>
       <c r="N6">
-        <v>1.055448899394437</v>
+        <v>1.048890241505336</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.049295187943749</v>
+        <v>1.027852349474863</v>
       </c>
       <c r="D7">
-        <v>1.050735151761995</v>
+        <v>1.039964145046882</v>
       </c>
       <c r="E7">
-        <v>1.062874982120057</v>
+        <v>1.044226778980218</v>
       </c>
       <c r="F7">
-        <v>1.070369781001874</v>
+        <v>1.049958252803783</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045141974222476</v>
+        <v>1.053779541206244</v>
       </c>
       <c r="J7">
-        <v>1.053762000671506</v>
+        <v>1.046563620541362</v>
       </c>
       <c r="K7">
-        <v>1.053181734767276</v>
+        <v>1.049600178583764</v>
       </c>
       <c r="L7">
-        <v>1.06529215831318</v>
+        <v>1.05381636078404</v>
       </c>
       <c r="M7">
-        <v>1.072769159759311</v>
+        <v>1.059486104648402</v>
       </c>
       <c r="N7">
-        <v>1.05525846358065</v>
+        <v>1.048049860925055</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.048037845290714</v>
+        <v>1.021990161423407</v>
       </c>
       <c r="D8">
-        <v>1.049772480141166</v>
+        <v>1.035585092431454</v>
       </c>
       <c r="E8">
-        <v>1.061629625895582</v>
+        <v>1.03876313734481</v>
       </c>
       <c r="F8">
-        <v>1.069020295941049</v>
+        <v>1.044080590080979</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044808395379069</v>
+        <v>1.051926269057058</v>
       </c>
       <c r="J8">
-        <v>1.052966799101831</v>
+        <v>1.042979153012703</v>
       </c>
       <c r="K8">
-        <v>1.052466058702769</v>
+        <v>1.046303685905113</v>
       </c>
       <c r="L8">
-        <v>1.06429139435454</v>
+        <v>1.049442440223406</v>
       </c>
       <c r="M8">
-        <v>1.071662622500444</v>
+        <v>1.054694817360124</v>
       </c>
       <c r="N8">
-        <v>1.054462132733535</v>
+        <v>1.044460303041362</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.045825881879337</v>
+        <v>1.011189982956631</v>
       </c>
       <c r="D9">
-        <v>1.048078828779543</v>
+        <v>1.02754022206531</v>
       </c>
       <c r="E9">
-        <v>1.059441617726245</v>
+        <v>1.028740086319027</v>
       </c>
       <c r="F9">
-        <v>1.066649917788897</v>
+        <v>1.033300109491313</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044213481169763</v>
+        <v>1.048447182495575</v>
       </c>
       <c r="J9">
-        <v>1.051564326324872</v>
+        <v>1.036353689274875</v>
       </c>
       <c r="K9">
-        <v>1.051202500860411</v>
+        <v>1.040201739712337</v>
       </c>
       <c r="L9">
-        <v>1.062529575473211</v>
+        <v>1.041383470988467</v>
       </c>
       <c r="M9">
-        <v>1.069715649734291</v>
+        <v>1.045875069326952</v>
       </c>
       <c r="N9">
-        <v>1.053057668284367</v>
+        <v>1.037825430385075</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.044353732791398</v>
+        <v>1.003638836655381</v>
       </c>
       <c r="D10">
-        <v>1.04695161466408</v>
+        <v>1.021934365952365</v>
       </c>
       <c r="E10">
-        <v>1.057987362029752</v>
+        <v>1.021763485690541</v>
       </c>
       <c r="F10">
-        <v>1.06507483213383</v>
+        <v>1.025797177645481</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043812122498263</v>
+        <v>1.045973076403666</v>
       </c>
       <c r="J10">
-        <v>1.05062856878461</v>
+        <v>1.031708821954907</v>
       </c>
       <c r="K10">
-        <v>1.050358535387697</v>
+        <v>1.035918568913329</v>
       </c>
       <c r="L10">
-        <v>1.061356198895696</v>
+        <v>1.035750605866077</v>
       </c>
       <c r="M10">
-        <v>1.068419667776962</v>
+        <v>1.039715770474392</v>
       </c>
       <c r="N10">
-        <v>1.052120581861065</v>
+        <v>1.033173966820739</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.043716877251573</v>
+        <v>1.000277407070528</v>
       </c>
       <c r="D11">
-        <v>1.046463981018691</v>
+        <v>1.019444167590789</v>
       </c>
       <c r="E11">
-        <v>1.057358714624933</v>
+        <v>1.018665742570853</v>
       </c>
       <c r="F11">
-        <v>1.064394041478182</v>
+        <v>1.022465817509166</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043637209120667</v>
+        <v>1.044862343283294</v>
       </c>
       <c r="J11">
-        <v>1.050223201437517</v>
+        <v>1.029638650136182</v>
       </c>
       <c r="K11">
-        <v>1.049992721446314</v>
+        <v>1.034008480735471</v>
       </c>
       <c r="L11">
-        <v>1.060848402853544</v>
+        <v>1.033244031093762</v>
       </c>
       <c r="M11">
-        <v>1.067858979656426</v>
+        <v>1.036976143445138</v>
       </c>
       <c r="N11">
-        <v>1.051714638845843</v>
+        <v>1.031100855120579</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.043480410839417</v>
+        <v>0.9990142634110005</v>
       </c>
       <c r="D12">
-        <v>1.046282922087442</v>
+        <v>1.018509275814659</v>
       </c>
       <c r="E12">
-        <v>1.057125366554235</v>
+        <v>1.017502923718739</v>
       </c>
       <c r="F12">
-        <v>1.064141351621544</v>
+        <v>1.021215305853254</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043572070307992</v>
+        <v>1.044443593422359</v>
       </c>
       <c r="J12">
-        <v>1.05007260395496</v>
+        <v>1.028860400048377</v>
       </c>
       <c r="K12">
-        <v>1.04985678687607</v>
+        <v>1.033290255748238</v>
       </c>
       <c r="L12">
-        <v>1.060659828320535</v>
+        <v>1.032302306050647</v>
       </c>
       <c r="M12">
-        <v>1.067650788256788</v>
+        <v>1.035947036648152</v>
       </c>
       <c r="N12">
-        <v>1.051563827497587</v>
+        <v>1.030321499828383</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.043531129598765</v>
+        <v>0.9992858839247738</v>
       </c>
       <c r="D13">
-        <v>1.046321756659967</v>
+        <v>1.018710270335427</v>
       </c>
       <c r="E13">
-        <v>1.05717541326948</v>
+        <v>1.017752914140483</v>
       </c>
       <c r="F13">
-        <v>1.064195546015226</v>
+        <v>1.021484149168614</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043586050408642</v>
+        <v>1.044533700292195</v>
       </c>
       <c r="J13">
-        <v>1.050104908790461</v>
+        <v>1.029027765486344</v>
       </c>
       <c r="K13">
-        <v>1.049885947778087</v>
+        <v>1.033444719416116</v>
       </c>
       <c r="L13">
-        <v>1.060700276213917</v>
+        <v>1.032504801081968</v>
       </c>
       <c r="M13">
-        <v>1.067695442694412</v>
+        <v>1.036168313102875</v>
       </c>
       <c r="N13">
-        <v>1.05159617820966</v>
+        <v>1.030489102944469</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.043697329022039</v>
+        <v>1.000173296909572</v>
       </c>
       <c r="D14">
-        <v>1.04644901319784</v>
+        <v>1.01936709443933</v>
       </c>
       <c r="E14">
-        <v>1.05733942273927</v>
+        <v>1.018569875886376</v>
       </c>
       <c r="F14">
-        <v>1.064373150253303</v>
+        <v>1.022362721172781</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043631828154714</v>
+        <v>1.044827856748334</v>
       </c>
       <c r="J14">
-        <v>1.050210753528603</v>
+        <v>1.029574512060552</v>
       </c>
       <c r="K14">
-        <v>1.049981486169351</v>
+        <v>1.033949292616031</v>
       </c>
       <c r="L14">
-        <v>1.060832814330698</v>
+        <v>1.033166408694511</v>
       </c>
       <c r="M14">
-        <v>1.067841768993128</v>
+        <v>1.036891314980044</v>
       </c>
       <c r="N14">
-        <v>1.05170217325947</v>
+        <v>1.031036625961526</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.043799741932209</v>
+        <v>1.000718107951149</v>
       </c>
       <c r="D15">
-        <v>1.046527429450794</v>
+        <v>1.019770455810689</v>
       </c>
       <c r="E15">
-        <v>1.057440495562949</v>
+        <v>1.019071599356818</v>
       </c>
       <c r="F15">
-        <v>1.064482602777891</v>
+        <v>1.022902281408198</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04366001106037</v>
+        <v>1.045008270336914</v>
       </c>
       <c r="J15">
-        <v>1.050275964542663</v>
+        <v>1.029910135017273</v>
       </c>
       <c r="K15">
-        <v>1.050040343263431</v>
+        <v>1.034259007066295</v>
       </c>
       <c r="L15">
-        <v>1.060914481233299</v>
+        <v>1.033572616444901</v>
       </c>
       <c r="M15">
-        <v>1.067931935173726</v>
+        <v>1.037335240140679</v>
       </c>
       <c r="N15">
-        <v>1.051767476880651</v>
+        <v>1.031372725541342</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.044396011389436</v>
+        <v>1.003859925849854</v>
       </c>
       <c r="D16">
-        <v>1.046983987043093</v>
+        <v>1.022098268109744</v>
       </c>
       <c r="E16">
-        <v>1.05802910560525</v>
+        <v>1.021967400655214</v>
       </c>
       <c r="F16">
-        <v>1.065120040009108</v>
+        <v>1.02601647172469</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043823707311972</v>
+        <v>1.046045940399078</v>
       </c>
       <c r="J16">
-        <v>1.050655467992079</v>
+        <v>1.031844933906642</v>
       </c>
       <c r="K16">
-        <v>1.050382805499316</v>
+        <v>1.036044133202706</v>
       </c>
       <c r="L16">
-        <v>1.061389905701429</v>
+        <v>1.035915492314172</v>
       </c>
       <c r="M16">
-        <v>1.068456889005929</v>
+        <v>1.039896012203127</v>
       </c>
       <c r="N16">
-        <v>1.052147519268495</v>
+        <v>1.033310272067058</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.044770195213323</v>
+        <v>1.005805613827341</v>
       </c>
       <c r="D17">
-        <v>1.047270496879738</v>
+        <v>1.023541292525292</v>
       </c>
       <c r="E17">
-        <v>1.058398608322805</v>
+        <v>1.023762855086367</v>
       </c>
       <c r="F17">
-        <v>1.065520218069164</v>
+        <v>1.027947346258318</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043926089447364</v>
+        <v>1.046686115748712</v>
       </c>
       <c r="J17">
-        <v>1.0508934733212</v>
+        <v>1.033042504593223</v>
       </c>
       <c r="K17">
-        <v>1.05059752416442</v>
+        <v>1.037148775016114</v>
       </c>
       <c r="L17">
-        <v>1.061688203510962</v>
+        <v>1.037366680365556</v>
       </c>
       <c r="M17">
-        <v>1.068786308003226</v>
+        <v>1.041482480929392</v>
       </c>
       <c r="N17">
-        <v>1.052385862592482</v>
+        <v>1.034509543441377</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.044988507639993</v>
+        <v>1.006931705056983</v>
       </c>
       <c r="D18">
-        <v>1.047437657283436</v>
+        <v>1.024376956732015</v>
       </c>
       <c r="E18">
-        <v>1.058614234717367</v>
+        <v>1.024802745604243</v>
       </c>
       <c r="F18">
-        <v>1.065753753944782</v>
+        <v>1.029065678083318</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043985698887746</v>
+        <v>1.04705573268417</v>
       </c>
       <c r="J18">
-        <v>1.0510322805619</v>
+        <v>1.0337353746319</v>
       </c>
       <c r="K18">
-        <v>1.050722730047866</v>
+        <v>1.037787772699316</v>
       </c>
       <c r="L18">
-        <v>1.061862222894889</v>
+        <v>1.038206657974343</v>
       </c>
       <c r="M18">
-        <v>1.068978498841528</v>
+        <v>1.042400876590566</v>
       </c>
       <c r="N18">
-        <v>1.052524866955385</v>
+        <v>1.035203397434982</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.045062956238017</v>
+        <v>1.007314203885607</v>
       </c>
       <c r="D19">
-        <v>1.047494662099252</v>
+        <v>1.024660888381863</v>
       </c>
       <c r="E19">
-        <v>1.058687774964814</v>
+        <v>1.025156090336849</v>
       </c>
       <c r="F19">
-        <v>1.065833403759545</v>
+        <v>1.029445678222502</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044006005779128</v>
+        <v>1.047181127573055</v>
       </c>
       <c r="J19">
-        <v>1.051079607296259</v>
+        <v>1.03397067963417</v>
       </c>
       <c r="K19">
-        <v>1.050765415908065</v>
+        <v>1.038004763617337</v>
       </c>
       <c r="L19">
-        <v>1.061921563614242</v>
+        <v>1.038491985708344</v>
       </c>
       <c r="M19">
-        <v>1.069044038777705</v>
+        <v>1.042712861369306</v>
       </c>
       <c r="N19">
-        <v>1.052572260899136</v>
+        <v>1.035439036597345</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.044730042894665</v>
+        <v>1.005597775139292</v>
       </c>
       <c r="D20">
-        <v>1.047239752519536</v>
+        <v>1.023387096500393</v>
       </c>
       <c r="E20">
-        <v>1.058358953649898</v>
+        <v>1.023570986353215</v>
       </c>
       <c r="F20">
-        <v>1.065477270456691</v>
+        <v>1.027741005215185</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043915116014789</v>
+        <v>1.046617824404335</v>
       </c>
       <c r="J20">
-        <v>1.050867939379616</v>
+        <v>1.03291460439459</v>
       </c>
       <c r="K20">
-        <v>1.050574490589273</v>
+        <v>1.037030810624742</v>
       </c>
       <c r="L20">
-        <v>1.061656196146895</v>
+        <v>1.037211655158091</v>
       </c>
       <c r="M20">
-        <v>1.068750959665579</v>
+        <v>1.041312992296898</v>
       </c>
       <c r="N20">
-        <v>1.052360292389773</v>
+        <v>1.034381461609791</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.043648384941364</v>
+        <v>0.9999123843222805</v>
       </c>
       <c r="D21">
-        <v>1.046411537379692</v>
+        <v>1.019173954024119</v>
       </c>
       <c r="E21">
-        <v>1.05729112162477</v>
+        <v>1.018329642548582</v>
       </c>
       <c r="F21">
-        <v>1.064320845086097</v>
+        <v>1.022104370958244</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043618352389004</v>
+        <v>1.044741407537623</v>
       </c>
       <c r="J21">
-        <v>1.050179585602923</v>
+        <v>1.029413769168178</v>
       </c>
       <c r="K21">
-        <v>1.049953354005743</v>
+        <v>1.033800952838821</v>
       </c>
       <c r="L21">
-        <v>1.060793783949977</v>
+        <v>1.032971880765182</v>
       </c>
       <c r="M21">
-        <v>1.067798677518963</v>
+        <v>1.036678730900395</v>
       </c>
       <c r="N21">
-        <v>1.051670961071761</v>
+        <v>1.030875654795806</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.042968825266626</v>
+        <v>0.9962530934958922</v>
       </c>
       <c r="D22">
-        <v>1.045891210750366</v>
+        <v>1.016467319818117</v>
       </c>
       <c r="E22">
-        <v>1.056620656984071</v>
+        <v>1.01496338934196</v>
       </c>
       <c r="F22">
-        <v>1.063594831820454</v>
+        <v>1.018484244942992</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043430792405216</v>
+        <v>1.043525771323989</v>
       </c>
       <c r="J22">
-        <v>1.049746640210758</v>
+        <v>1.027158627460443</v>
       </c>
       <c r="K22">
-        <v>1.049562503058102</v>
+        <v>1.031719465348943</v>
       </c>
       <c r="L22">
-        <v>1.060251803450188</v>
+        <v>1.030244134628226</v>
       </c>
       <c r="M22">
-        <v>1.067200363523307</v>
+        <v>1.033698208529936</v>
       </c>
       <c r="N22">
-        <v>1.05123740084748</v>
+        <v>1.028617310528178</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.043329023016522</v>
+        <v>0.9982012517153264</v>
       </c>
       <c r="D23">
-        <v>1.046167006947909</v>
+        <v>1.017907793472576</v>
       </c>
       <c r="E23">
-        <v>1.05697599505544</v>
+        <v>1.016754840158977</v>
       </c>
       <c r="F23">
-        <v>1.063979602729641</v>
+        <v>1.020410805296835</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043530313576204</v>
+        <v>1.044173690256498</v>
       </c>
       <c r="J23">
-        <v>1.049976166721682</v>
+        <v>1.028359398721282</v>
       </c>
       <c r="K23">
-        <v>1.049769730388688</v>
+        <v>1.032827853452828</v>
       </c>
       <c r="L23">
-        <v>1.060539093354985</v>
+        <v>1.031696230820953</v>
       </c>
       <c r="M23">
-        <v>1.067517500631775</v>
+        <v>1.035284773395929</v>
       </c>
       <c r="N23">
-        <v>1.051467253312376</v>
+        <v>1.029819787021939</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.044748185822005</v>
+        <v>1.005691715620613</v>
       </c>
       <c r="D24">
-        <v>1.047253644436503</v>
+        <v>1.02345678963872</v>
       </c>
       <c r="E24">
-        <v>1.058376871575484</v>
+        <v>1.023657706297002</v>
       </c>
       <c r="F24">
-        <v>1.065496676267159</v>
+        <v>1.027834266258824</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043920074771366</v>
+        <v>1.046648694006485</v>
       </c>
       <c r="J24">
-        <v>1.050879477122047</v>
+        <v>1.032972414425069</v>
       </c>
       <c r="K24">
-        <v>1.050584898581344</v>
+        <v>1.0370841300703</v>
       </c>
       <c r="L24">
-        <v>1.06167065881263</v>
+        <v>1.037281724350157</v>
       </c>
       <c r="M24">
-        <v>1.06876693191478</v>
+        <v>1.041389598395373</v>
       </c>
       <c r="N24">
-        <v>1.052371846517121</v>
+        <v>1.034439353737145</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.04639729162483</v>
+        <v>1.014041265618822</v>
       </c>
       <c r="D25">
-        <v>1.048516350974731</v>
+        <v>1.02966109458736</v>
       </c>
       <c r="E25">
-        <v>1.060006496798485</v>
+        <v>1.03138098968385</v>
       </c>
       <c r="F25">
-        <v>1.067261811542108</v>
+        <v>1.036140390669279</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044368119910328</v>
+        <v>1.049373010631879</v>
       </c>
       <c r="J25">
-        <v>1.051927039443792</v>
+        <v>1.038105152214409</v>
       </c>
       <c r="K25">
-        <v>1.051529445428036</v>
+        <v>1.041815770524341</v>
       </c>
       <c r="L25">
-        <v>1.062984845932385</v>
+        <v>1.043510932518693</v>
       </c>
       <c r="M25">
-        <v>1.070218640677447</v>
+        <v>1.048202431787401</v>
       </c>
       <c r="N25">
-        <v>1.05342089649752</v>
+        <v>1.039579380602879</v>
       </c>
     </row>
   </sheetData>
